--- a/lab06/lab06exp.xlsx
+++ b/lab06/lab06exp.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janadhi/Computer Science/cosc201_code_fork/src/cosc201/lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1952D9F-55B9-A546-9EA4-792C7B14DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77E715-3D71-6443-81E4-6568197D7887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" xr2:uid="{DDDE1F21-7772-7D4D-ABB3-B220B008C6BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab06" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,15 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>num distinct substrings</t>
+    <t>Theoretical max</t>
   </si>
   <si>
-    <t xml:space="preserve">therotical max </t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>ABCDEFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as you increase the number of distinct Characters the closer we get to the therotical maximum </t>
   </si>
 </sst>
 </file>
@@ -117,8 +138,10 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -147,25 +170,27 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Lab06'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>num distinct substrings</c:v>
+                  <c:v>A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -187,80 +212,98 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>'Lab06'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>291</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1190</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4838</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19605</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79019</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317693</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>496991</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1993121</c:v>
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3924-994E-8E67-DB760695233C}"/>
+              <c16:uniqueId val="{00000000-9BA5-4E41-894A-257FD2DD1F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -269,18 +312,20 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Lab06'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>therotical max </c:v>
+                  <c:v>AB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -302,80 +347,920 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>'Lab06'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>326</c:v>
+                  <c:v>7.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1276</c:v>
+                  <c:v>10.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5051</c:v>
+                  <c:v>36.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20101</c:v>
+                  <c:v>247.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80201</c:v>
+                  <c:v>1066.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320401</c:v>
+                  <c:v>4519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500501</c:v>
+                  <c:v>18818.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2001001</c:v>
+                  <c:v>77221.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175473.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>313620.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>491701.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3924-994E-8E67-DB760695233C}"/>
+              <c16:uniqueId val="{00000001-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1145.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4726.0200000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19319.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78383.649999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177348.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316257.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>495107.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABCD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>288.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1175.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4803.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19500.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78802.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178026.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>317191.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>496335.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABCDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1193.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4841.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19595.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79021.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178374.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>317694.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>496980.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABCDEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1203.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1203.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4867.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19657.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79162.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178600.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>318006.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497381.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABCDEFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1211.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4886.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19699.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79256.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178762.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>318226.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497667.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9BA5-4E41-894A-257FD2DD1F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Lab06'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Theoretical max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab06'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab06'!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9BA5-4E41-894A-257FD2DD1F5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,11 +1272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1082825392"/>
-        <c:axId val="1082827120"/>
+        <c:axId val="1083098848"/>
+        <c:axId val="1090981632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1082825392"/>
+        <c:axId val="1083098848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,12 +1333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082827120"/>
+        <c:crossAx val="1090981632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1082827120"/>
+        <c:axId val="1090981632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +1395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1082825392"/>
+        <c:crossAx val="1083098848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,23 +2042,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>681404</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541161</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B473DCAB-C4C7-E25A-3327-9E158ACE3288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0E8F14-100E-898A-23BF-96CEE0FBB336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,162 +2376,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC49790-F48D-AB41-998C-EC5C454AB2FB}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4.42</v>
+      </c>
+      <c r="D2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E2">
+        <v>5.32</v>
+      </c>
+      <c r="F2">
+        <v>5.41</v>
+      </c>
+      <c r="G2">
+        <v>5.48</v>
+      </c>
+      <c r="H2">
+        <v>5.58</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7.18</v>
+      </c>
+      <c r="D3">
+        <v>8.09</v>
+      </c>
+      <c r="E3">
+        <v>8.39</v>
+      </c>
+      <c r="F3">
+        <v>8.86</v>
+      </c>
+      <c r="G3">
+        <v>9.02</v>
+      </c>
+      <c r="H3">
+        <v>9.31</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10.37</v>
+      </c>
+      <c r="D4">
+        <v>11.91</v>
+      </c>
+      <c r="E4">
+        <v>12.79</v>
+      </c>
+      <c r="F4">
+        <v>12.82</v>
+      </c>
+      <c r="G4">
+        <v>13.1</v>
+      </c>
+      <c r="H4">
+        <v>13.69</v>
+      </c>
+      <c r="I4">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>36.97</v>
+      </c>
+      <c r="D5">
+        <v>43.73</v>
+      </c>
+      <c r="E5">
+        <v>45.99</v>
+      </c>
+      <c r="F5">
+        <v>47.96</v>
+      </c>
+      <c r="G5">
+        <v>49.14</v>
+      </c>
+      <c r="H5">
+        <v>49.91</v>
+      </c>
+      <c r="I5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>291</v>
-      </c>
-      <c r="C3">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>247.83</v>
+      </c>
+      <c r="D6">
+        <v>276.51</v>
+      </c>
+      <c r="E6">
+        <v>288.52999999999997</v>
+      </c>
+      <c r="F6">
+        <v>294.64</v>
+      </c>
+      <c r="G6">
+        <v>1203.07</v>
+      </c>
+      <c r="H6">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="I6">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>50</v>
       </c>
-      <c r="B4">
-        <v>1190</v>
-      </c>
-      <c r="C4">
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1066.67</v>
+      </c>
+      <c r="D7">
+        <v>1145.95</v>
+      </c>
+      <c r="E7">
+        <v>1175.55</v>
+      </c>
+      <c r="F7">
+        <v>1193.25</v>
+      </c>
+      <c r="G7">
+        <v>1203.07</v>
+      </c>
+      <c r="H7">
+        <v>1211.19</v>
+      </c>
+      <c r="I7">
         <v>1276</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>100</v>
       </c>
-      <c r="B5">
-        <v>4838</v>
-      </c>
-      <c r="C5">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>4519</v>
+      </c>
+      <c r="D8">
+        <v>4726.0200000000004</v>
+      </c>
+      <c r="E8">
+        <v>4803.0600000000004</v>
+      </c>
+      <c r="F8">
+        <v>4841.83</v>
+      </c>
+      <c r="G8">
+        <v>4867.8100000000004</v>
+      </c>
+      <c r="H8">
+        <v>4886.03</v>
+      </c>
+      <c r="I8">
         <v>5051</v>
       </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>200</v>
       </c>
-      <c r="B6">
-        <v>19605</v>
-      </c>
-      <c r="C6">
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>18818.84</v>
+      </c>
+      <c r="D9">
+        <v>19319.759999999998</v>
+      </c>
+      <c r="E9">
+        <v>19500.099999999999</v>
+      </c>
+      <c r="F9">
+        <v>19595.61</v>
+      </c>
+      <c r="G9">
+        <v>19657.73</v>
+      </c>
+      <c r="H9">
+        <v>19699.05</v>
+      </c>
+      <c r="I9">
         <v>20101</v>
       </c>
+      <c r="N9">
+        <v>400</v>
+      </c>
+      <c r="O9">
+        <v>77221.14</v>
+      </c>
+      <c r="P9">
+        <v>78383.649999999994</v>
+      </c>
+      <c r="Q9">
+        <v>78802.83</v>
+      </c>
+      <c r="R9">
+        <v>79021.2</v>
+      </c>
+      <c r="S9">
+        <v>79162.52</v>
+      </c>
+      <c r="T9">
+        <v>79256.23</v>
+      </c>
+      <c r="U9">
+        <v>80201</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>400</v>
       </c>
-      <c r="B7">
-        <v>79019</v>
-      </c>
-      <c r="C7">
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <v>77221.14</v>
+      </c>
+      <c r="D10">
+        <v>78383.649999999994</v>
+      </c>
+      <c r="E10">
+        <v>78802.83</v>
+      </c>
+      <c r="F10">
+        <v>79021.2</v>
+      </c>
+      <c r="G10">
+        <v>79162.52</v>
+      </c>
+      <c r="H10">
+        <v>79256.23</v>
+      </c>
+      <c r="I10">
         <v>80201</v>
       </c>
+      <c r="N10">
+        <v>600</v>
+      </c>
+      <c r="O10">
+        <v>175473.45</v>
+      </c>
+      <c r="P10">
+        <v>177348.8</v>
+      </c>
+      <c r="Q10">
+        <v>178026.84</v>
+      </c>
+      <c r="R10">
+        <v>178374.24</v>
+      </c>
+      <c r="S10">
+        <v>178600.1</v>
+      </c>
+      <c r="T10">
+        <v>178762.92</v>
+      </c>
+      <c r="U10">
+        <v>180301</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>600</v>
+      </c>
+      <c r="B11">
+        <v>600</v>
+      </c>
+      <c r="C11">
+        <v>175473.45</v>
+      </c>
+      <c r="D11">
+        <v>177348.8</v>
+      </c>
+      <c r="E11">
+        <v>178026.84</v>
+      </c>
+      <c r="F11">
+        <v>178374.24</v>
+      </c>
+      <c r="G11">
+        <v>178600.1</v>
+      </c>
+      <c r="H11">
+        <v>178762.92</v>
+      </c>
+      <c r="I11">
+        <v>180301</v>
+      </c>
+      <c r="N11">
         <v>800</v>
       </c>
-      <c r="B8">
-        <v>317693</v>
-      </c>
-      <c r="C8">
+      <c r="O11">
+        <v>313620.38</v>
+      </c>
+      <c r="P11">
+        <v>316257.63</v>
+      </c>
+      <c r="Q11">
+        <v>317191.62</v>
+      </c>
+      <c r="R11">
+        <v>317694.37</v>
+      </c>
+      <c r="S11">
+        <v>318006.73</v>
+      </c>
+      <c r="T11">
+        <v>318226.89</v>
+      </c>
+      <c r="U11">
         <v>320401</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>313620.38</v>
+      </c>
+      <c r="D12">
+        <v>316257.63</v>
+      </c>
+      <c r="E12">
+        <v>317191.62</v>
+      </c>
+      <c r="F12">
+        <v>317694.37</v>
+      </c>
+      <c r="G12">
+        <v>318006.73</v>
+      </c>
+      <c r="H12">
+        <v>318226.89</v>
+      </c>
+      <c r="I12">
+        <v>320401</v>
+      </c>
+      <c r="N12">
         <v>1000</v>
       </c>
-      <c r="B9">
-        <v>496991</v>
-      </c>
-      <c r="C9">
+      <c r="O12">
+        <v>491701.27</v>
+      </c>
+      <c r="P12">
+        <v>495107.11</v>
+      </c>
+      <c r="Q12">
+        <v>496335.91</v>
+      </c>
+      <c r="R12">
+        <v>496980.3</v>
+      </c>
+      <c r="S12">
+        <v>497381.34</v>
+      </c>
+      <c r="T12">
+        <v>497667.65</v>
+      </c>
+      <c r="U12">
         <v>500501</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10">
-        <v>1993121</v>
-      </c>
-      <c r="C10">
-        <v>2001001</v>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>491701.27</v>
+      </c>
+      <c r="D13">
+        <v>495107.11</v>
+      </c>
+      <c r="E13">
+        <v>496335.91</v>
+      </c>
+      <c r="F13">
+        <v>496980.3</v>
+      </c>
+      <c r="G13">
+        <v>497381.34</v>
+      </c>
+      <c r="H13">
+        <v>497667.65</v>
+      </c>
+      <c r="I13">
+        <v>500501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2500</v>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3000</v>
+    <row r="24" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4000</v>
+    <row r="25" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5000</v>
+    <row r="26" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>9000</v>
+    <row r="27" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
